--- a/data2.xlsx
+++ b/data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Root\Dev\Python_projects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Root\Dev\Python_projects\spreadsheet_compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE7EA5-7431-46F2-ADD3-AAE42867F8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D1C14-95DB-4FD2-9D5B-3DF02ADF9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Column_1</t>
   </si>
   <si>
     <t>Column_2</t>
-  </si>
-  <si>
-    <t>dasdasda</t>
   </si>
 </sst>
 </file>
@@ -352,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B22" sqref="A20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,30 +510,6 @@
       </c>
       <c r="B19">
         <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
